--- a/analysis/obt/202212.xlsx
+++ b/analysis/obt/202212.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\CostOfLivingTracker\analysis\obt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD791B4A-32F4-48B8-AA28-72329A57B627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E7905C-C284-49EB-BA49-4F2FAE294C59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="159">
   <si>
     <t>Date</t>
   </si>
@@ -467,9 +467,6 @@
   </si>
   <si>
     <t>Internet</t>
-  </si>
-  <si>
-    <t>Accomodation</t>
   </si>
   <si>
     <t>Taxi</t>
@@ -853,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,10 +886,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>152</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
       </c>
       <c r="C2">
         <v>215</v>
@@ -909,30 +906,30 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3">
         <v>394.35</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
         <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4">
         <v>91.69</v>
@@ -944,15 +941,15 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>215</v>
@@ -1004,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1158,7 +1155,7 @@
         <v>16.600000000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
@@ -1726,7 +1723,7 @@
         <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1817,13 +1814,13 @@
         <v>35.32</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49" t="s">
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2045,7 +2042,7 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>148</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
